--- a/Excel/Notebook Template.xlsx
+++ b/Excel/Notebook Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26818"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fba700666e0de548/Creations/Snippets for Statistics/SnippetsForStatistics/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{1F0F2540-35E1-44AE-A9DD-C53C491050F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8793CA91-F82A-4F4B-8881-59986859FFE3}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="8_{1F0F2540-35E1-44AE-A9DD-C53C491050F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{564D98CC-EE6E-4D43-9085-8DEB9C4F4005}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{374E3395-8F9F-47FF-84C7-984D8806F5BA}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -164,29 +164,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -194,16 +177,59 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -247,33 +273,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Code" xfId="3" xr:uid="{2A96102B-8962-4C01-8007-2BEB36062651}"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,130 +647,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE20870-1EE9-4B59-9E4C-DF2B104B741B}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="B1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="14" width="9" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="2:13" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="str" cm="1">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="str" cm="1">
         <f t="array" ref="B6">_xlfn._xlws.PY(0,0)</f>
         <v>Packages loaded successfully!</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="8" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="2:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="2:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="12" spans="2:13" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="12" spans="2:13" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:M5"/>
@@ -746,43 +774,43 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -798,43 +826,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -846,50 +874,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FD4173-AC6E-4DBD-AE63-C89896161CAB}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="B1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="14" width="9" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -907,44 +935,44 @@
       <selection activeCell="B2" sqref="B2:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="14" width="9" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -962,43 +990,43 @@
       <selection activeCell="B2" sqref="B2:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1016,43 +1044,43 @@
       <selection activeCell="B2" sqref="B2:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1070,43 +1098,43 @@
       <selection activeCell="B2" sqref="B2:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1124,43 +1152,43 @@
       <selection activeCell="B2" sqref="B2:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1178,43 +1206,43 @@
       <selection activeCell="B2" sqref="B2:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1232,43 +1260,43 @@
       <selection activeCell="B2" sqref="B2:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
